--- a/Image/power consumption.xlsx
+++ b/Image/power consumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taiting\Documents\GitHub\sign_language\Image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67A99F1-BC10-4D3B-A581-9A3DB1FDF14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17127472-6A76-46C9-8FD6-5E8BCB309938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Active power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep power</t>
+    <t>ICM20948</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX30101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRF52832</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2450AT18B100E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIC5370</t>
+  </si>
+  <si>
+    <t>TXS0102DQE</t>
+  </si>
+  <si>
+    <t>DW01A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FS8205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep power (mW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active current (mA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep mode current (mA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active power (mA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation voltage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,23 +403,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.9140625" customWidth="1"/>
+    <col min="2" max="6" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>3.11</v>
+      </c>
+      <c r="C2">
+        <v>5.5979999999999999</v>
+      </c>
+      <c r="D2">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.12402000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.26E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
